--- a/заказы/статистика филиалы/2023/10,23/19,10,23 ЗПФ/дв 19,10,23 мррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/19,10,23 ЗПФ/дв 19,10,23 мррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\19,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\19,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BCF132-FEEA-4963-9BDB-C3EFBBB204F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB772947-DA5D-42DD-9FDB-107BA0F8D1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Z$42</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>Период: 12.10.2023 - 19.10.2023</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>скорей всего завод не отгрузит</t>
+  </si>
+  <si>
+    <t>+1000</t>
+  </si>
+  <si>
+    <t>коробки дозаказ</t>
   </si>
 </sst>
 </file>
@@ -245,7 +251,7 @@
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="165" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -253,10 +259,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -282,6 +292,13 @@
       <sz val="8"/>
       <color indexed="56"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -391,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -450,6 +467,8 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2643,10 +2662,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2671,15 +2690,15 @@
     <col min="26" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2748,8 +2767,14 @@
       <c r="Z3" s="13" t="s">
         <v>60</v>
       </c>
+      <c r="AA3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" s="29" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2795,7 +2820,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2869,8 +2894,16 @@
         <f>SUM(Z6:Z79)</f>
         <v>3893.6600000000003</v>
       </c>
+      <c r="AA5" s="18">
+        <f>SUM(AA6:AA79)</f>
+        <v>200</v>
+      </c>
+      <c r="AB5" s="17">
+        <f>SUM(AB6:AB79)</f>
+        <v>1000</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2943,7 +2976,7 @@
         <v>57.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3081,7 +3114,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -3144,7 +3177,7 @@
         <v>100.80000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -3202,7 +3235,7 @@
         <v>3.7</v>
       </c>
       <c r="Y10" s="20">
-        <f t="shared" ref="Y7:Y42" si="9">N10/X10</f>
+        <f t="shared" ref="Y10:Y34" si="9">N10/X10</f>
         <v>0</v>
       </c>
       <c r="Z10" s="2">
@@ -3210,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3280,7 +3313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -3350,7 +3383,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
@@ -3420,7 +3453,7 @@
         <v>103.60000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -3493,7 +3526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
@@ -3563,7 +3596,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
@@ -3633,7 +3666,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3703,7 +3736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -3776,7 +3809,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -3849,7 +3882,7 @@
         <v>410.40000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -3919,7 +3952,7 @@
         <v>13.76</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -3973,6 +4006,9 @@
         <f>VLOOKUP(A21,[1]TDSheet!$A:$M,13,0)</f>
         <v>182.744</v>
       </c>
+      <c r="V21" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="W21" s="2">
         <f t="shared" si="6"/>
         <v>2253.9280000000003</v>
@@ -3988,8 +4024,14 @@
         <f t="shared" si="7"/>
         <v>2255</v>
       </c>
+      <c r="AA21" s="2">
+        <v>200</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
@@ -4062,7 +4104,7 @@
         <v>136.80000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
@@ -4132,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -4205,7 +4247,7 @@
         <v>39.199999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
@@ -4273,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="21.95" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
@@ -4344,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -4412,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
@@ -4478,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
@@ -4544,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
@@ -4612,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -4680,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
@@ -5422,10 +5464,10 @@
     </row>
     <row r="45" spans="1:26" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N45" s="23"/>
-      <c r="O45" s="28" t="s">
+      <c r="O45" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="P45" s="29"/>
+      <c r="P45" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:Z42" xr:uid="{BE6600AB-CCA8-418D-83D1-C9D56F83E818}"/>
